--- a/data/SlideVQA/reference_qa.xlsx
+++ b/data/SlideVQA/reference_qa.xlsx
@@ -22,7 +22,7 @@
     <t>question</t>
   </si>
   <si>
-    <t>answer</t>
+    <t>reference_answer</t>
   </si>
   <si>
     <t>page_number</t>
